--- a/xlsx/瀛寰志略_intext.xlsx
+++ b/xlsx/瀛寰志略_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>瀛寰志略</t>
   </si>
@@ -29,7 +29,7 @@
     <t>清朝</t>
   </si>
   <si>
-    <t>政策_政策_美國_瀛寰志略</t>
+    <t>政策_政策_美国_瀛寰志略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%90%E7%BB%A7%E7%95%AC</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E5%9C%96</t>
   </si>
   <si>
-    <t>插圖</t>
+    <t>插图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B8%85%E5%9C%8B</t>
   </si>
   <si>
-    <t>大清國</t>
+    <t>大清国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E8%A6%8B</t>
   </si>
   <si>
-    <t>偏見</t>
+    <t>偏见</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80</t>
   </si>
   <si>
-    <t>客觀</t>
+    <t>客观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E6%98%8E</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>英國國會</t>
+    <t>英国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E4%B8%8A%E8%AE%AE%E9%99%A2</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E5%B8%AB</t>
   </si>
   <si>
-    <t>牧師</t>
+    <t>牧师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%90%9B%E4%B8%BB</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%A6%96%E7%9B%B8</t>
   </si>
   <si>
-    <t>英國首相</t>
+    <t>英国首相</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E7%B4%B3</t>
   </si>
   <si>
-    <t>鄉紳</t>
+    <t>乡绅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
@@ -239,19 +239,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8C%97%E7%BE%8E</t>
   </si>
   <si>
-    <t>英屬北美</t>
+    <t>英属北美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%8B%E5%9C%96%E5%BF%97</t>
   </si>
   <si>
-    <t>海國圖志</t>
+    <t>海国图志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%94%81%E5%9B%BD</t>
@@ -263,21 +263,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%A5%88%E5%B7%9D%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>神奈川條約</t>
+    <t>神奈川条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E7%A9%86</t>
   </si>
   <si>
-    <t>張穆</t>
+    <t>张穆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
   </si>
   <si>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%8B%E7%82%BA%E5%85%AC</t>
   </si>
   <si>
-    <t>天下為公</t>
+    <t>天下为公</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%9C%89%E4%B8%BA</t>
@@ -341,13 +338,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%8A%E6%88%8C%E8%AE%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>戊戌變法</t>
+    <t>戊戌变法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E5%95%9F%E8%B6%85</t>
   </si>
   <si>
-    <t>梁啟超</t>
+    <t>梁启超</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
@@ -1977,7 +1974,7 @@
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -2003,10 +2000,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>5</v>
@@ -2032,10 +2029,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2061,10 +2058,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2090,10 +2087,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2119,10 +2116,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2148,10 +2145,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2177,10 +2174,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2206,10 +2203,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2235,10 +2232,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2267,7 +2264,7 @@
         <v>85</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2293,10 +2290,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2322,10 +2319,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2351,10 +2348,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2380,10 +2377,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2409,10 +2406,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
